--- a/state_results/Rivers/ManawatuatOpikiBridge_6c566d0b94.xlsx
+++ b/state_results/Rivers/ManawatuatOpikiBridge_6c566d0b94.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U282"/>
+  <dimension ref="A1:U302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -813,7 +813,7 @@
         <v>0.02404</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0312725109218741</v>
+        <v>0.0312762974017758</v>
       </c>
       <c r="H5" t="n">
         <v>0.170509268291633</v>
@@ -894,7 +894,7 @@
         <v>0.02404</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0312725109218741</v>
+        <v>0.0312762974017758</v>
       </c>
       <c r="H6" t="n">
         <v>0.170509268291633</v>
@@ -1688,7 +1688,7 @@
         <v>0.02781</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0348840757613258</v>
+        <v>0.0348888088612029</v>
       </c>
       <c r="H16" t="n">
         <v>0.170509268291633</v>
@@ -1769,7 +1769,7 @@
         <v>0.02781</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0348840757613258</v>
+        <v>0.0348888088612029</v>
       </c>
       <c r="H17" t="n">
         <v>0.170509268291633</v>
@@ -2563,7 +2563,7 @@
         <v>0.03075</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0389230769037029</v>
+        <v>0.0389293877035391</v>
       </c>
       <c r="H27" t="n">
         <v>0.170509268291633</v>
@@ -2644,7 +2644,7 @@
         <v>0.03075</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0389230769037029</v>
+        <v>0.0389293877035391</v>
       </c>
       <c r="H28" t="n">
         <v>0.170509268291633</v>
@@ -3118,7 +3118,7 @@
         <v>0.9</v>
       </c>
       <c r="G34" t="n">
-        <v>0.928532696238222</v>
+        <v>0.928325559609087</v>
       </c>
       <c r="H34" t="n">
         <v>3</v>
@@ -3199,7 +3199,7 @@
         <v>0.025</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0283967853939378</v>
+        <v>0.0284050816922076</v>
       </c>
       <c r="H35" t="n">
         <v>0.09</v>
@@ -3280,7 +3280,7 @@
         <v>0.025</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0283967853939378</v>
+        <v>0.0284050816922076</v>
       </c>
       <c r="H36" t="n">
         <v>0.09</v>
@@ -3438,7 +3438,7 @@
         <v>0.038</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0502418846954356</v>
+        <v>0.0502450146974786</v>
       </c>
       <c r="H38" t="n">
         <v>0.2</v>
@@ -3519,7 +3519,7 @@
         <v>0.038</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0502418846954356</v>
+        <v>0.0502450146974786</v>
       </c>
       <c r="H39" t="n">
         <v>0.2</v>
@@ -3596,7 +3596,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>0.607771428571429</v>
+        <v>0.607757142857143</v>
       </c>
       <c r="H40" t="n">
         <v>1.48</v>
@@ -3607,7 +3607,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>0.3755</v>
+        <v>0.37575</v>
       </c>
       <c r="M40" t="n">
         <v>0.8999</v>
@@ -3673,7 +3673,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>0.607771428571429</v>
+        <v>0.607757142857143</v>
       </c>
       <c r="H41" t="n">
         <v>1.48</v>
@@ -3684,7 +3684,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>0.3755</v>
+        <v>0.37575</v>
       </c>
       <c r="M41" t="n">
         <v>0.8999</v>
@@ -3908,7 +3908,7 @@
         <v>0.9</v>
       </c>
       <c r="G44" t="n">
-        <v>0.947442537635974</v>
+        <v>0.947247585514435</v>
       </c>
       <c r="H44" t="n">
         <v>3</v>
@@ -3989,7 +3989,7 @@
         <v>0.024</v>
       </c>
       <c r="G45" t="n">
-        <v>0.026045877618823</v>
+        <v>0.0260552567333269</v>
       </c>
       <c r="H45" t="n">
         <v>0.09</v>
@@ -4070,7 +4070,7 @@
         <v>0.024</v>
       </c>
       <c r="G46" t="n">
-        <v>0.026045877618823</v>
+        <v>0.0260552567333269</v>
       </c>
       <c r="H46" t="n">
         <v>0.09</v>
@@ -4151,7 +4151,7 @@
         <v>243</v>
       </c>
       <c r="G47" t="n">
-        <v>908.037556111765</v>
+        <v>908.036617177858</v>
       </c>
       <c r="H47" t="n">
         <v>5800</v>
@@ -4236,7 +4236,7 @@
         <v>243</v>
       </c>
       <c r="G48" t="n">
-        <v>908.037556111765</v>
+        <v>908.036617177858</v>
       </c>
       <c r="H48" t="n">
         <v>5800</v>
@@ -4321,7 +4321,7 @@
         <v>243</v>
       </c>
       <c r="G49" t="n">
-        <v>908.037556111765</v>
+        <v>908.036617177858</v>
       </c>
       <c r="H49" t="n">
         <v>5800</v>
@@ -4406,7 +4406,7 @@
         <v>243</v>
       </c>
       <c r="G50" t="n">
-        <v>908.037556111765</v>
+        <v>908.036617177858</v>
       </c>
       <c r="H50" t="n">
         <v>5800</v>
@@ -4568,7 +4568,7 @@
         <v>0.04585</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0597236460694048</v>
+        <v>0.0597259595491757</v>
       </c>
       <c r="H52" t="n">
         <v>0.2</v>
@@ -4649,7 +4649,7 @@
         <v>0.04585</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0597236460694048</v>
+        <v>0.0597259595491757</v>
       </c>
       <c r="H53" t="n">
         <v>0.2</v>
@@ -4888,7 +4888,7 @@
         <v>0.578</v>
       </c>
       <c r="G56" t="n">
-        <v>0.609446808510638</v>
+        <v>0.609436170212766</v>
       </c>
       <c r="H56" t="n">
         <v>1.48</v>
@@ -4899,7 +4899,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>0.3755</v>
+        <v>0.37575</v>
       </c>
       <c r="M56" t="n">
         <v>0.91667</v>
@@ -4965,7 +4965,7 @@
         <v>0.578</v>
       </c>
       <c r="G57" t="n">
-        <v>0.609446808510638</v>
+        <v>0.609436170212766</v>
       </c>
       <c r="H57" t="n">
         <v>1.48</v>
@@ -4976,7 +4976,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>0.3755</v>
+        <v>0.37575</v>
       </c>
       <c r="M57" t="n">
         <v>0.91667</v>
@@ -5354,7 +5354,7 @@
         <v>0.019</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0213224733635039</v>
+        <v>0.0213318524780078</v>
       </c>
       <c r="H62" t="n">
         <v>0.046</v>
@@ -5435,7 +5435,7 @@
         <v>0.019</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0213224733635039</v>
+        <v>0.0213318524780078</v>
       </c>
       <c r="H63" t="n">
         <v>0.046</v>
@@ -5933,7 +5933,7 @@
         <v>0.05119</v>
       </c>
       <c r="G69" t="n">
-        <v>0.06265824730256001</v>
+        <v>0.06266051155935699</v>
       </c>
       <c r="H69" t="n">
         <v>0.172067239135012</v>
@@ -6014,7 +6014,7 @@
         <v>0.05119</v>
       </c>
       <c r="G70" t="n">
-        <v>0.06265824730256001</v>
+        <v>0.06266051155935699</v>
       </c>
       <c r="H70" t="n">
         <v>0.172067239135012</v>
@@ -6253,7 +6253,7 @@
         <v>0.586</v>
       </c>
       <c r="G73" t="n">
-        <v>0.62968085106383</v>
+        <v>0.6296914893617021</v>
       </c>
       <c r="H73" t="n">
         <v>1.441</v>
@@ -6330,7 +6330,7 @@
         <v>0.586</v>
       </c>
       <c r="G74" t="n">
-        <v>0.62968085106383</v>
+        <v>0.6296914893617021</v>
       </c>
       <c r="H74" t="n">
         <v>1.441</v>
@@ -6800,7 +6800,7 @@
         <v>0.019</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0195789194590624</v>
+        <v>0.0195863909570571</v>
       </c>
       <c r="H80" t="n">
         <v>0.046</v>
@@ -6881,7 +6881,7 @@
         <v>0.019</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0195789194590624</v>
+        <v>0.0195863909570571</v>
       </c>
       <c r="H81" t="n">
         <v>0.046</v>
@@ -7379,7 +7379,7 @@
         <v>0.05093</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0601178722429361</v>
+        <v>0.0601197070717199</v>
       </c>
       <c r="H87" t="n">
         <v>0.172067239135012</v>
@@ -7460,7 +7460,7 @@
         <v>0.05093</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0601178722429361</v>
+        <v>0.0601197070717199</v>
       </c>
       <c r="H88" t="n">
         <v>0.172067239135012</v>
@@ -7699,7 +7699,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="G91" t="n">
-        <v>0.610474576271186</v>
+        <v>0.610472881355932</v>
       </c>
       <c r="H91" t="n">
         <v>1.441</v>
@@ -7776,7 +7776,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="G92" t="n">
-        <v>0.610474576271186</v>
+        <v>0.610472881355932</v>
       </c>
       <c r="H92" t="n">
         <v>1.441</v>
@@ -8323,7 +8323,7 @@
         <v>0.018</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0178821462673473</v>
+        <v>0.0178872126356244</v>
       </c>
       <c r="H99" t="n">
         <v>0.042</v>
@@ -8404,7 +8404,7 @@
         <v>0.018</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0178821462673473</v>
+        <v>0.0178872126356244</v>
       </c>
       <c r="H100" t="n">
         <v>0.042</v>
@@ -9296,10 +9296,10 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.5606</v>
       </c>
       <c r="G111" t="n">
-        <v>0.578881355932203</v>
+        <v>0.578889830508475</v>
       </c>
       <c r="H111" t="n">
         <v>1.25</v>
@@ -9310,7 +9310,7 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>0.4215</v>
+        <v>0.4217</v>
       </c>
       <c r="M111" t="n">
         <v>0.85899</v>
@@ -9373,10 +9373,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.5606</v>
       </c>
       <c r="G112" t="n">
-        <v>0.578881355932203</v>
+        <v>0.578889830508475</v>
       </c>
       <c r="H112" t="n">
         <v>1.25</v>
@@ -9387,7 +9387,7 @@
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
-        <v>0.4215</v>
+        <v>0.4217</v>
       </c>
       <c r="M112" t="n">
         <v>0.85899</v>
@@ -9923,7 +9923,7 @@
         <v>0.0145</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0159657442437134</v>
+        <v>0.0159707589070708</v>
       </c>
       <c r="H119" t="n">
         <v>0.042</v>
@@ -10004,7 +10004,7 @@
         <v>0.0145</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0159657442437134</v>
+        <v>0.0159707589070708</v>
       </c>
       <c r="H120" t="n">
         <v>0.042</v>
@@ -10502,7 +10502,7 @@
         <v>0.04155</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0514217556531341</v>
+        <v>0.0514287925340544</v>
       </c>
       <c r="H126" t="n">
         <v>0.172067239135012</v>
@@ -10583,7 +10583,7 @@
         <v>0.04155</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0514217556531341</v>
+        <v>0.0514287925340544</v>
       </c>
       <c r="H127" t="n">
         <v>0.172067239135012</v>
@@ -10896,10 +10896,10 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0.544</v>
+        <v>0.5441</v>
       </c>
       <c r="G131" t="n">
-        <v>0.5634</v>
+        <v>0.56341</v>
       </c>
       <c r="H131" t="n">
         <v>1.25</v>
@@ -10910,7 +10910,7 @@
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
-        <v>0.4715</v>
+        <v>0.4713</v>
       </c>
       <c r="M131" t="n">
         <v>0.8328</v>
@@ -10973,10 +10973,10 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0.544</v>
+        <v>0.5441</v>
       </c>
       <c r="G132" t="n">
-        <v>0.5634</v>
+        <v>0.56341</v>
       </c>
       <c r="H132" t="n">
         <v>1.25</v>
@@ -10987,7 +10987,7 @@
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
-        <v>0.4715</v>
+        <v>0.4713</v>
       </c>
       <c r="M132" t="n">
         <v>0.8328</v>
@@ -11523,24 +11523,24 @@
         <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>1.03997652216437</v>
+        <v>1.0506319884561</v>
       </c>
       <c r="H139" t="n">
-        <v>2.80018462791279</v>
+        <v>3.07648474285178</v>
       </c>
       <c r="I139" t="n">
-        <v>2.58958</v>
+        <v>2.5742</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
-        <v>1.9</v>
+        <v>2.03152</v>
       </c>
       <c r="M139" t="n">
-        <v>1.9467</v>
+        <v>1.9678</v>
       </c>
       <c r="N139" t="n">
-        <v>2.47024</v>
+        <v>2.38207</v>
       </c>
       <c r="O139" t="n">
         <v>1809485</v>
@@ -11604,7 +11604,7 @@
         <v>0.0135</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0158284764014193</v>
+        <v>0.0158334712530832</v>
       </c>
       <c r="H140" t="n">
         <v>0.066</v>
@@ -11685,7 +11685,7 @@
         <v>0.0135</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0158284764014193</v>
+        <v>0.0158334712530832</v>
       </c>
       <c r="H141" t="n">
         <v>0.066</v>
@@ -12183,7 +12183,7 @@
         <v>0.03547</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0411407304358738</v>
+        <v>0.0411536573930959</v>
       </c>
       <c r="H147" t="n">
         <v>0.147866217590157</v>
@@ -12264,7 +12264,7 @@
         <v>0.03547</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0411407304358738</v>
+        <v>0.0411536573930959</v>
       </c>
       <c r="H148" t="n">
         <v>0.147866217590157</v>
@@ -12580,7 +12580,7 @@
         <v>0.524</v>
       </c>
       <c r="G152" t="n">
-        <v>0.5630333333333331</v>
+        <v>0.563043333333333</v>
       </c>
       <c r="H152" t="n">
         <v>1.27</v>
@@ -12657,7 +12657,7 @@
         <v>0.524</v>
       </c>
       <c r="G153" t="n">
-        <v>0.5630333333333331</v>
+        <v>0.563043333333333</v>
       </c>
       <c r="H153" t="n">
         <v>1.27</v>
@@ -13204,24 +13204,24 @@
         <v>0.85</v>
       </c>
       <c r="G160" t="n">
-        <v>0.988780630785607</v>
+        <v>0.99757139047628</v>
       </c>
       <c r="H160" t="n">
-        <v>2.80018462791279</v>
+        <v>3.07648474285178</v>
       </c>
       <c r="I160" t="n">
-        <v>2.56526</v>
+        <v>2.51399</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
-        <v>1.84631</v>
+        <v>1.9</v>
       </c>
       <c r="M160" t="n">
-        <v>1.914</v>
+        <v>1.92</v>
       </c>
       <c r="N160" t="n">
-        <v>2.22915</v>
+        <v>2.1984</v>
       </c>
       <c r="O160" t="n">
         <v>1809485</v>
@@ -13285,7 +13285,7 @@
         <v>0.015</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0158284764014193</v>
+        <v>0.0158334712530832</v>
       </c>
       <c r="H161" t="n">
         <v>0.066</v>
@@ -13366,7 +13366,7 @@
         <v>0.015</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0158284764014193</v>
+        <v>0.0158334712530832</v>
       </c>
       <c r="H162" t="n">
         <v>0.066</v>
@@ -13864,7 +13864,7 @@
         <v>0.02788</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0332552167827218</v>
+        <v>0.033271512352997</v>
       </c>
       <c r="H168" t="n">
         <v>0.141013532262835</v>
@@ -13945,7 +13945,7 @@
         <v>0.02788</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0332552167827218</v>
+        <v>0.033271512352997</v>
       </c>
       <c r="H169" t="n">
         <v>0.141013532262835</v>
@@ -14258,10 +14258,10 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0.515</v>
+        <v>0.5155</v>
       </c>
       <c r="G173" t="n">
-        <v>0.5710666666666671</v>
+        <v>0.571076666666667</v>
       </c>
       <c r="H173" t="n">
         <v>1.29</v>
@@ -14272,7 +14272,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
-        <v>0.394</v>
+        <v>0.3942</v>
       </c>
       <c r="M173" t="n">
         <v>0.8502999999999999</v>
@@ -14335,10 +14335,10 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0.515</v>
+        <v>0.5155</v>
       </c>
       <c r="G174" t="n">
-        <v>0.5710666666666671</v>
+        <v>0.571076666666667</v>
       </c>
       <c r="H174" t="n">
         <v>1.29</v>
@@ -14349,7 +14349,7 @@
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
-        <v>0.394</v>
+        <v>0.3942</v>
       </c>
       <c r="M174" t="n">
         <v>0.8502999999999999</v>
@@ -14885,13 +14885,13 @@
         <v>0.72</v>
       </c>
       <c r="G181" t="n">
-        <v>0.912942192321339</v>
+        <v>0.9202678253969</v>
       </c>
       <c r="H181" t="n">
-        <v>2.80018462791279</v>
+        <v>3.07648474285178</v>
       </c>
       <c r="I181" t="n">
-        <v>2.53746</v>
+        <v>2.44519</v>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
@@ -14899,10 +14899,10 @@
         <v>1.61</v>
       </c>
       <c r="M181" t="n">
-        <v>1.86456</v>
+        <v>1.9068</v>
       </c>
       <c r="N181" t="n">
-        <v>2.0558</v>
+        <v>2.07672</v>
       </c>
       <c r="O181" t="n">
         <v>1809485</v>
@@ -14966,7 +14966,7 @@
         <v>0.017</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0176391285438162</v>
+        <v>0.0176442080539829</v>
       </c>
       <c r="H182" t="n">
         <v>0.066</v>
@@ -15047,7 +15047,7 @@
         <v>0.017</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0176391285438162</v>
+        <v>0.0176442080539829</v>
       </c>
       <c r="H183" t="n">
         <v>0.066</v>
@@ -15545,7 +15545,7 @@
         <v>0.02787</v>
       </c>
       <c r="G189" t="n">
-        <v>0.034778848200616</v>
+        <v>0.0348188691394773</v>
       </c>
       <c r="H189" t="n">
         <v>0.170103897609803</v>
@@ -15626,7 +15626,7 @@
         <v>0.02787</v>
       </c>
       <c r="G190" t="n">
-        <v>0.034778848200616</v>
+        <v>0.0348188691394773</v>
       </c>
       <c r="H190" t="n">
         <v>0.170103897609803</v>
@@ -15942,7 +15942,7 @@
         <v>0.555</v>
       </c>
       <c r="G194" t="n">
-        <v>0.5829830508474581</v>
+        <v>0.583003389830508</v>
       </c>
       <c r="H194" t="n">
         <v>1.29</v>
@@ -15956,7 +15956,7 @@
         <v>0.365</v>
       </c>
       <c r="M194" t="n">
-        <v>0.85429</v>
+        <v>0.85443</v>
       </c>
       <c r="N194" t="n">
         <v>0.9878</v>
@@ -16019,7 +16019,7 @@
         <v>0.555</v>
       </c>
       <c r="G195" t="n">
-        <v>0.5829830508474581</v>
+        <v>0.583003389830508</v>
       </c>
       <c r="H195" t="n">
         <v>1.29</v>
@@ -16033,7 +16033,7 @@
         <v>0.365</v>
       </c>
       <c r="M195" t="n">
-        <v>0.85429</v>
+        <v>0.85443</v>
       </c>
       <c r="N195" t="n">
         <v>0.9878</v>
@@ -16566,13 +16566,13 @@
         <v>0.675</v>
       </c>
       <c r="G202" t="n">
-        <v>0.8827983834195799</v>
+        <v>0.889215295993233</v>
       </c>
       <c r="H202" t="n">
-        <v>2.80018462791279</v>
+        <v>3.07648474285178</v>
       </c>
       <c r="I202" t="n">
-        <v>2.44441</v>
+        <v>2.36239</v>
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
@@ -16580,10 +16580,10 @@
         <v>1.565</v>
       </c>
       <c r="M202" t="n">
-        <v>1.78762</v>
+        <v>1.8048</v>
       </c>
       <c r="N202" t="n">
-        <v>1.9934</v>
+        <v>2.04384</v>
       </c>
       <c r="O202" t="n">
         <v>1809485</v>
@@ -16647,7 +16647,7 @@
         <v>0.018</v>
       </c>
       <c r="G203" t="n">
-        <v>0.0193001454929688</v>
+        <v>0.0193052250031355</v>
       </c>
       <c r="H203" t="n">
         <v>0.066</v>
@@ -16728,7 +16728,7 @@
         <v>0.018</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0193001454929688</v>
+        <v>0.0193052250031355</v>
       </c>
       <c r="H204" t="n">
         <v>0.066</v>
@@ -17226,7 +17226,7 @@
         <v>0.0353</v>
       </c>
       <c r="G210" t="n">
-        <v>0.0549795124582505</v>
+        <v>0.055020962716357</v>
       </c>
       <c r="H210" t="n">
         <v>0.55</v>
@@ -17307,7 +17307,7 @@
         <v>0.0353</v>
       </c>
       <c r="G211" t="n">
-        <v>0.0549795124582505</v>
+        <v>0.055020962716357</v>
       </c>
       <c r="H211" t="n">
         <v>0.55</v>
@@ -17623,7 +17623,7 @@
         <v>0.58</v>
       </c>
       <c r="G215" t="n">
-        <v>0.603423728813559</v>
+        <v>0.603425423728814</v>
       </c>
       <c r="H215" t="n">
         <v>1.29</v>
@@ -17700,7 +17700,7 @@
         <v>0.58</v>
       </c>
       <c r="G216" t="n">
-        <v>0.603423728813559</v>
+        <v>0.603425423728814</v>
       </c>
       <c r="H216" t="n">
         <v>1.29</v>
@@ -18247,13 +18247,13 @@
         <v>0.72</v>
       </c>
       <c r="G223" t="n">
-        <v>0.900346466967481</v>
+        <v>0.914010205860496</v>
       </c>
       <c r="H223" t="n">
         <v>3.24</v>
       </c>
       <c r="I223" t="n">
-        <v>2.123</v>
+        <v>2.13223</v>
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
@@ -18261,10 +18261,10 @@
         <v>1.5575</v>
       </c>
       <c r="M223" t="n">
-        <v>1.80229</v>
+        <v>1.8237</v>
       </c>
       <c r="N223" t="n">
-        <v>1.933</v>
+        <v>1.98599</v>
       </c>
       <c r="O223" t="n">
         <v>1809485</v>
@@ -18328,7 +18328,7 @@
         <v>0.02</v>
       </c>
       <c r="G224" t="n">
-        <v>0.0210867704958485</v>
+        <v>0.0210893439310318</v>
       </c>
       <c r="H224" t="n">
         <v>0.066</v>
@@ -18409,7 +18409,7 @@
         <v>0.02</v>
       </c>
       <c r="G225" t="n">
-        <v>0.0210867704958485</v>
+        <v>0.0210893439310318</v>
       </c>
       <c r="H225" t="n">
         <v>0.066</v>
@@ -18907,7 +18907,7 @@
         <v>0.04449</v>
       </c>
       <c r="G231" t="n">
-        <v>0.068798196474465</v>
+        <v>0.06883485106061241</v>
       </c>
       <c r="H231" t="n">
         <v>0.55</v>
@@ -18988,7 +18988,7 @@
         <v>0.04449</v>
       </c>
       <c r="G232" t="n">
-        <v>0.068798196474465</v>
+        <v>0.06883485106061241</v>
       </c>
       <c r="H232" t="n">
         <v>0.55</v>
@@ -19928,7 +19928,7 @@
         <v>0.615</v>
       </c>
       <c r="G244" t="n">
-        <v>0.794270790688889</v>
+        <v>0.7941307957525779</v>
       </c>
       <c r="H244" t="n">
         <v>3.24</v>
@@ -20588,7 +20588,7 @@
         <v>0.05261</v>
       </c>
       <c r="G252" t="n">
-        <v>0.0825210984493837</v>
+        <v>0.08255165774306709</v>
       </c>
       <c r="H252" t="n">
         <v>0.5649999999999999</v>
@@ -20669,7 +20669,7 @@
         <v>0.05261</v>
       </c>
       <c r="G253" t="n">
-        <v>0.0825210984493837</v>
+        <v>0.08255165774306709</v>
       </c>
       <c r="H253" t="n">
         <v>0.5649999999999999</v>
@@ -21528,7 +21528,7 @@
         <v>0.4</v>
       </c>
       <c r="G264" t="n">
-        <v>0.753886240300926</v>
+        <v>0.753740412242269</v>
       </c>
       <c r="H264" t="n">
         <v>3.24</v>
@@ -22188,7 +22188,7 @@
         <v>0.05268</v>
       </c>
       <c r="G272" t="n">
-        <v>0.0891255750580278</v>
+        <v>0.0891522373287674</v>
       </c>
       <c r="H272" t="n">
         <v>0.5649999999999999</v>
@@ -22269,7 +22269,7 @@
         <v>0.05268</v>
       </c>
       <c r="G273" t="n">
-        <v>0.0891255750580278</v>
+        <v>0.0891522373287674</v>
       </c>
       <c r="H273" t="n">
         <v>0.5649999999999999</v>
@@ -23021,6 +23021,1606 @@
         </is>
       </c>
     </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F283" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.2676</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="M283" t="n">
+        <v>0.3527</v>
+      </c>
+      <c r="N283" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="O283" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="P283" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T283" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 4)</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F284" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.689886245575602</v>
+      </c>
+      <c r="H284" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="I284" t="n">
+        <v>2.202</v>
+      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="M284" t="n">
+        <v>1.55476</v>
+      </c>
+      <c r="N284" t="n">
+        <v>1.8458</v>
+      </c>
+      <c r="O284" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="P284" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S284" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T284" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U284" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F285" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.022551724137931</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0.0366</v>
+      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>0.0215</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N285" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="O285" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="P285" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S285" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T285" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U285" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F286" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.022551724137931</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0.0366</v>
+      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>0.0215</v>
+      </c>
+      <c r="M286" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N286" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="O286" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="P286" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S286" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T286" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U286" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F287" t="n">
+        <v>285</v>
+      </c>
+      <c r="G287" t="n">
+        <v>948.844827586207</v>
+      </c>
+      <c r="H287" t="n">
+        <v>6900</v>
+      </c>
+      <c r="I287" t="n">
+        <v>5520</v>
+      </c>
+      <c r="J287" t="n">
+        <v>34.4827586206897</v>
+      </c>
+      <c r="K287" t="n">
+        <v>53.448275862069</v>
+      </c>
+      <c r="L287" t="n">
+        <v>235</v>
+      </c>
+      <c r="M287" t="n">
+        <v>1709.64</v>
+      </c>
+      <c r="N287" t="n">
+        <v>3433.08</v>
+      </c>
+      <c r="O287" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="P287" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S287" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T287" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U287" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F288" t="n">
+        <v>285</v>
+      </c>
+      <c r="G288" t="n">
+        <v>948.844827586207</v>
+      </c>
+      <c r="H288" t="n">
+        <v>6900</v>
+      </c>
+      <c r="I288" t="n">
+        <v>5520</v>
+      </c>
+      <c r="J288" t="n">
+        <v>34.4827586206897</v>
+      </c>
+      <c r="K288" t="n">
+        <v>53.448275862069</v>
+      </c>
+      <c r="L288" t="n">
+        <v>235</v>
+      </c>
+      <c r="M288" t="n">
+        <v>1709.64</v>
+      </c>
+      <c r="N288" t="n">
+        <v>3433.08</v>
+      </c>
+      <c r="O288" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="P288" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S288" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T288" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U288" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F289" t="n">
+        <v>285</v>
+      </c>
+      <c r="G289" t="n">
+        <v>948.844827586207</v>
+      </c>
+      <c r="H289" t="n">
+        <v>6900</v>
+      </c>
+      <c r="I289" t="n">
+        <v>5520</v>
+      </c>
+      <c r="J289" t="n">
+        <v>34.4827586206897</v>
+      </c>
+      <c r="K289" t="n">
+        <v>53.448275862069</v>
+      </c>
+      <c r="L289" t="n">
+        <v>235</v>
+      </c>
+      <c r="M289" t="n">
+        <v>1709.64</v>
+      </c>
+      <c r="N289" t="n">
+        <v>3433.08</v>
+      </c>
+      <c r="O289" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="P289" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S289" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T289" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U289" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F290" t="n">
+        <v>285</v>
+      </c>
+      <c r="G290" t="n">
+        <v>948.844827586207</v>
+      </c>
+      <c r="H290" t="n">
+        <v>6900</v>
+      </c>
+      <c r="I290" t="n">
+        <v>5520</v>
+      </c>
+      <c r="J290" t="n">
+        <v>34.4827586206897</v>
+      </c>
+      <c r="K290" t="n">
+        <v>53.448275862069</v>
+      </c>
+      <c r="L290" t="n">
+        <v>235</v>
+      </c>
+      <c r="M290" t="n">
+        <v>1709.64</v>
+      </c>
+      <c r="N290" t="n">
+        <v>3433.08</v>
+      </c>
+      <c r="O290" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="P290" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S290" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T290" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U290" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F291" t="n">
+        <v>91</v>
+      </c>
+      <c r="G291" t="n">
+        <v>87.688</v>
+      </c>
+      <c r="H291" t="n">
+        <v>100</v>
+      </c>
+      <c r="I291" t="n">
+        <v>100</v>
+      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>91</v>
+      </c>
+      <c r="M291" t="n">
+        <v>96.88849999999999</v>
+      </c>
+      <c r="N291" t="n">
+        <v>100</v>
+      </c>
+      <c r="O291" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="P291" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S291" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T291" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F292" t="n">
+        <v>0.06282</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.0919606563990349</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I292" t="n">
+        <v>0.23185</v>
+      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>0.06594999999999999</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0.12497</v>
+      </c>
+      <c r="N292" t="n">
+        <v>0.16969</v>
+      </c>
+      <c r="O292" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="P292" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S292" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T292" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U292" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F293" t="n">
+        <v>0.06282</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.0919606563990349</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0.23185</v>
+      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>0.06594999999999999</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0.12497</v>
+      </c>
+      <c r="N293" t="n">
+        <v>0.16969</v>
+      </c>
+      <c r="O293" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="P293" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S293" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T293" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U293" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F294" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.495551724137931</v>
+      </c>
+      <c r="H294" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0.9434</v>
+      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>0.3205</v>
+      </c>
+      <c r="M294" t="n">
+        <v>0.7833599999999999</v>
+      </c>
+      <c r="N294" t="n">
+        <v>0.92472</v>
+      </c>
+      <c r="O294" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="P294" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S294" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T294" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U294" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F295" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.495551724137931</v>
+      </c>
+      <c r="H295" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0.9434</v>
+      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>0.3205</v>
+      </c>
+      <c r="M295" t="n">
+        <v>0.7833599999999999</v>
+      </c>
+      <c r="N295" t="n">
+        <v>0.92472</v>
+      </c>
+      <c r="O295" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="P295" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S295" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T295" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U295" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F296" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="G296" t="n">
+        <v>3.8432</v>
+      </c>
+      <c r="H296" t="n">
+        <v>5.627</v>
+      </c>
+      <c r="I296" t="n">
+        <v>5.627</v>
+      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="M296" t="n">
+        <v>5.0887</v>
+      </c>
+      <c r="N296" t="n">
+        <v>5.627</v>
+      </c>
+      <c r="O296" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="P296" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R296" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S296" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T296" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr"/>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F297" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.618672413793103</v>
+      </c>
+      <c r="H297" t="n">
+        <v>1.212</v>
+      </c>
+      <c r="I297" t="n">
+        <v>1.0296</v>
+      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>0.466</v>
+      </c>
+      <c r="M297" t="n">
+        <v>0.86368</v>
+      </c>
+      <c r="N297" t="n">
+        <v>1.01204</v>
+      </c>
+      <c r="O297" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="P297" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S297" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T297" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U297" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F298" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.618672413793103</v>
+      </c>
+      <c r="H298" t="n">
+        <v>1.212</v>
+      </c>
+      <c r="I298" t="n">
+        <v>1.0296</v>
+      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>0.466</v>
+      </c>
+      <c r="M298" t="n">
+        <v>0.86368</v>
+      </c>
+      <c r="N298" t="n">
+        <v>1.01204</v>
+      </c>
+      <c r="O298" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="P298" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S298" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T298" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U298" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F299" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H299" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I299" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="M299" t="n">
+        <v>1.1356</v>
+      </c>
+      <c r="N299" t="n">
+        <v>1.3086</v>
+      </c>
+      <c r="O299" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="P299" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R299" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S299" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T299" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U299" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr"/>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F300" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H300" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I300" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="M300" t="n">
+        <v>1.1356</v>
+      </c>
+      <c r="N300" t="n">
+        <v>1.3086</v>
+      </c>
+      <c r="O300" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="P300" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S300" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T300" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U300" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr"/>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F301" t="n">
+        <v>0.0615</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.0882068965517241</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0.536</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0.2156</v>
+      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="M301" t="n">
+        <v>0.12312</v>
+      </c>
+      <c r="N301" t="n">
+        <v>0.18324</v>
+      </c>
+      <c r="O301" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="P301" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S301" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T301" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U301" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr"/>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F302" t="n">
+        <v>0.0615</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.0882068965517241</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0.536</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0.2156</v>
+      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="M302" t="n">
+        <v>0.12312</v>
+      </c>
+      <c r="N302" t="n">
+        <v>0.18324</v>
+      </c>
+      <c r="O302" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="P302" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R302" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S302" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T302" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U302" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/ManawatuatOpikiBridge_6c566d0b94.xlsx
+++ b/state_results/Rivers/ManawatuatOpikiBridge_6c566d0b94.xlsx
@@ -11523,24 +11523,24 @@
         <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>1.0506319884561</v>
+        <v>1.10700676885334</v>
       </c>
       <c r="H139" t="n">
-        <v>3.07648474285178</v>
+        <v>4.80441208132339</v>
       </c>
       <c r="I139" t="n">
-        <v>2.5742</v>
+        <v>2.59911</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
-        <v>2.03152</v>
+        <v>1.99787</v>
       </c>
       <c r="M139" t="n">
         <v>1.9678</v>
       </c>
       <c r="N139" t="n">
-        <v>2.38207</v>
+        <v>2.5249</v>
       </c>
       <c r="O139" t="n">
         <v>1809485</v>
@@ -13204,13 +13204,13 @@
         <v>0.85</v>
       </c>
       <c r="G160" t="n">
-        <v>0.99757139047628</v>
+        <v>1.044080584304</v>
       </c>
       <c r="H160" t="n">
-        <v>3.07648474285178</v>
+        <v>4.80441208132339</v>
       </c>
       <c r="I160" t="n">
-        <v>2.51399</v>
+        <v>2.59704</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -13221,7 +13221,7 @@
         <v>1.92</v>
       </c>
       <c r="N160" t="n">
-        <v>2.1984</v>
+        <v>2.24822</v>
       </c>
       <c r="O160" t="n">
         <v>1809485</v>
@@ -14885,13 +14885,13 @@
         <v>0.72</v>
       </c>
       <c r="G181" t="n">
-        <v>0.9202678253969</v>
+        <v>0.959025486920004</v>
       </c>
       <c r="H181" t="n">
-        <v>3.07648474285178</v>
+        <v>4.80441208132339</v>
       </c>
       <c r="I181" t="n">
-        <v>2.44519</v>
+        <v>2.59467</v>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
@@ -14902,7 +14902,7 @@
         <v>1.9068</v>
       </c>
       <c r="N181" t="n">
-        <v>2.07672</v>
+        <v>2.06527</v>
       </c>
       <c r="O181" t="n">
         <v>1809485</v>
@@ -16566,13 +16566,13 @@
         <v>0.675</v>
       </c>
       <c r="G202" t="n">
-        <v>0.889215295993233</v>
+        <v>0.923666550680436</v>
       </c>
       <c r="H202" t="n">
-        <v>3.07648474285178</v>
+        <v>4.80441208132339</v>
       </c>
       <c r="I202" t="n">
-        <v>2.36239</v>
+        <v>2.49526</v>
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
@@ -16583,7 +16583,7 @@
         <v>1.8048</v>
       </c>
       <c r="N202" t="n">
-        <v>2.04384</v>
+        <v>2.01625</v>
       </c>
       <c r="O202" t="n">
         <v>1809485</v>
@@ -18247,13 +18247,13 @@
         <v>0.72</v>
       </c>
       <c r="G223" t="n">
-        <v>0.914010205860496</v>
+        <v>0.904273228412377</v>
       </c>
       <c r="H223" t="n">
         <v>3.24</v>
       </c>
       <c r="I223" t="n">
-        <v>2.13223</v>
+        <v>2.12718</v>
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
@@ -18264,7 +18264,7 @@
         <v>1.8237</v>
       </c>
       <c r="N223" t="n">
-        <v>1.98599</v>
+        <v>1.97725</v>
       </c>
       <c r="O223" t="n">
         <v>1809485</v>
